--- a/data/trans_orig/P29_R2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P29_R2_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>86956</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71038</v>
+        <v>72338</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102564</v>
+        <v>102958</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1579238461030213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1290153702832322</v>
+        <v>0.1313756219825425</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.186270740551341</v>
+        <v>0.1869870593279623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -762,19 +762,19 @@
         <v>12586</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7896</v>
+        <v>7885</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18872</v>
+        <v>19226</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02576976597894511</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01616689874700552</v>
+        <v>0.01614468233758692</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0386392618790438</v>
+        <v>0.03936425887681176</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -783,19 +783,19 @@
         <v>99542</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83641</v>
+        <v>85387</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119478</v>
+        <v>118555</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0958028832671716</v>
+        <v>0.09580288326717158</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0804994233673189</v>
+        <v>0.08217988849258663</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1149897165062234</v>
+        <v>0.1141019313264942</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>463662</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>448054</v>
+        <v>447660</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>479580</v>
+        <v>478280</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8420761538969787</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.813729259448659</v>
+        <v>0.8130129406720378</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8709846297167682</v>
+        <v>0.8686243780174575</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>666</v>
@@ -833,19 +833,19 @@
         <v>475825</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>469539</v>
+        <v>469185</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>480515</v>
+        <v>480526</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.974230234021055</v>
+        <v>0.9742302340210548</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9613607381209561</v>
+        <v>0.9606357411231884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9838331012529944</v>
+        <v>0.983855317662413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1114</v>
@@ -854,19 +854,19 @@
         <v>939487</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>919551</v>
+        <v>920474</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>955388</v>
+        <v>953642</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9041971167328287</v>
+        <v>0.9041971167328284</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8850102834937764</v>
+        <v>0.8858980686735058</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9195005766326809</v>
+        <v>0.9178201115074135</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>64018</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50432</v>
+        <v>50573</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78003</v>
+        <v>78249</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1324832878798314</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1043681793924605</v>
+        <v>0.1046610871962485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1614267867230668</v>
+        <v>0.1619350379775988</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -979,19 +979,19 @@
         <v>23490</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16803</v>
+        <v>16613</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32146</v>
+        <v>32250</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05570571157124447</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0398474052711992</v>
+        <v>0.03939692270012747</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07623169973031482</v>
+        <v>0.076478097290807</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -1000,19 +1000,19 @@
         <v>87508</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72006</v>
+        <v>72987</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103396</v>
+        <v>105501</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09670459016824696</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07957381725532585</v>
+        <v>0.08065812640030481</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1142628779898979</v>
+        <v>0.1165891346889154</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>419194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>405209</v>
+        <v>404963</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>432780</v>
+        <v>432639</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8675167121201687</v>
+        <v>0.8675167121201686</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8385732132769331</v>
+        <v>0.8380649620224011</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8956318206075395</v>
+        <v>0.8953389128037514</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>554</v>
@@ -1050,19 +1050,19 @@
         <v>398197</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>389541</v>
+        <v>389437</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>404884</v>
+        <v>405074</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9442942884287555</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9237683002696851</v>
+        <v>0.923521902709193</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9601525947288008</v>
+        <v>0.9606030772998728</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>959</v>
@@ -1071,19 +1071,19 @@
         <v>817391</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>801503</v>
+        <v>799398</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>832893</v>
+        <v>831912</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.903295409831753</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8857371220101021</v>
+        <v>0.8834108653110846</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9204261827446741</v>
+        <v>0.9193418735996953</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>89319</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73046</v>
+        <v>73127</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107489</v>
+        <v>107007</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1893912212297326</v>
+        <v>0.1893912212297325</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1548853976114366</v>
+        <v>0.1550585747637984</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2279191739747575</v>
+        <v>0.2268966563390347</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1196,19 +1196,19 @@
         <v>10278</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6139</v>
+        <v>6361</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15873</v>
+        <v>16620</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05511974051634527</v>
+        <v>0.05511974051634526</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03292263969422052</v>
+        <v>0.03411252481090062</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08512442055957606</v>
+        <v>0.08913146929079914</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>120</v>
@@ -1217,19 +1217,19 @@
         <v>99597</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82065</v>
+        <v>83188</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117837</v>
+        <v>117647</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1513452404311919</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1247037701616602</v>
+        <v>0.1264097227315421</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1790615704211394</v>
+        <v>0.1787741101363312</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>382293</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>364123</v>
+        <v>364605</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>398566</v>
+        <v>398485</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8106087787702676</v>
+        <v>0.8106087787702675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7720808260252425</v>
+        <v>0.7731033436609657</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8451146023885632</v>
+        <v>0.8449414252362015</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>271</v>
@@ -1267,19 +1267,19 @@
         <v>176189</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>170594</v>
+        <v>169847</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>180328</v>
+        <v>180106</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9448802594836546</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9148755794404239</v>
+        <v>0.9108685307092006</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9670773603057795</v>
+        <v>0.9658874751890993</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>656</v>
@@ -1288,19 +1288,19 @@
         <v>558482</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>540242</v>
+        <v>540432</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>576014</v>
+        <v>574891</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8486547595688081</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8209384295788607</v>
+        <v>0.8212258898636686</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8752962298383395</v>
+        <v>0.8735902772684576</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>211050</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>186671</v>
+        <v>185993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>237671</v>
+        <v>237789</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1872171002478978</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1655908702578102</v>
+        <v>0.1649897792217039</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.210831835007801</v>
+        <v>0.2109359689417168</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1413,19 +1413,19 @@
         <v>21603</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14813</v>
+        <v>14736</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30077</v>
+        <v>29840</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02513375040684138</v>
+        <v>0.02513375040684139</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01723395363363973</v>
+        <v>0.01714465896615562</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03499202873427523</v>
+        <v>0.03471671749567916</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>275</v>
@@ -1434,19 +1434,19 @@
         <v>232654</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>208885</v>
+        <v>209495</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>264108</v>
+        <v>259890</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1170977720705618</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1051347489571352</v>
+        <v>0.1054417272470342</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1329290129896784</v>
+        <v>0.1308061882432708</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>916253</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>889632</v>
+        <v>889514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>940632</v>
+        <v>941310</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8127828997521023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.789168164992199</v>
+        <v>0.7890640310582834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8344091297421902</v>
+        <v>0.8350102207782963</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1194</v>
@@ -1484,19 +1484,19 @@
         <v>837926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>829452</v>
+        <v>829689</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>844716</v>
+        <v>844793</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9748662495931588</v>
+        <v>0.9748662495931586</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9650079712657249</v>
+        <v>0.9652832825043208</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9827660463663603</v>
+        <v>0.9828553410338443</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2067</v>
@@ -1505,19 +1505,19 @@
         <v>1754179</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1722725</v>
+        <v>1726943</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1777948</v>
+        <v>1777338</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8829022279294384</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8670709870103216</v>
+        <v>0.8691938117567293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8948652510428649</v>
+        <v>0.8945582727529658</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>107514</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86628</v>
+        <v>89467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126485</v>
+        <v>126932</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1899119307181969</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1530177707062109</v>
+        <v>0.1580332718012287</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2234216931010721</v>
+        <v>0.2242101689621743</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -1630,19 +1630,19 @@
         <v>28880</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21292</v>
+        <v>20983</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38376</v>
+        <v>38895</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03485112515282721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02569424710612836</v>
+        <v>0.02532165849370943</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04630983678591003</v>
+        <v>0.04693638233662618</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>157</v>
@@ -1651,19 +1651,19 @@
         <v>136395</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>115214</v>
+        <v>115777</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>160659</v>
+        <v>159320</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09778797604734664</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08260272636834652</v>
+        <v>0.08300585321670698</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1151840105386635</v>
+        <v>0.1142244089899966</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>458614</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>439643</v>
+        <v>439196</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>479500</v>
+        <v>476661</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8100880692818031</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7765783068989278</v>
+        <v>0.7757898310378256</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.846982229293789</v>
+        <v>0.8419667281987714</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1244</v>
@@ -1701,19 +1701,19 @@
         <v>799792</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>790296</v>
+        <v>789777</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>807380</v>
+        <v>807689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9651488748471728</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9536901632140898</v>
+        <v>0.9530636176633738</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9743057528938716</v>
+        <v>0.9746783415062905</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1675</v>
@@ -1722,19 +1722,19 @@
         <v>1258405</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1234141</v>
+        <v>1235480</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1279586</v>
+        <v>1279023</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9022120239526534</v>
+        <v>0.9022120239526532</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8848159894613363</v>
+        <v>0.8857755910100034</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9173972736316532</v>
+        <v>0.9169941467832929</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>3275</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10831</v>
+        <v>10458</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01380674149464574</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002057752257907377</v>
+        <v>0.002191998376598407</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04565760601376423</v>
+        <v>0.04408279432613228</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1847,19 +1847,19 @@
         <v>18061</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12344</v>
+        <v>12114</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26064</v>
+        <v>27398</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02144404371821125</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01465636234707271</v>
+        <v>0.01438261788700658</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03094577981206884</v>
+        <v>0.03252902507310718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -1868,19 +1868,19 @@
         <v>21337</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14331</v>
+        <v>14673</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31132</v>
+        <v>31158</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01976566542188187</v>
+        <v>0.01976566542188188</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01327600476093455</v>
+        <v>0.01359298242533119</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02883955356848108</v>
+        <v>0.02886351909289745</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>233953</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>226397</v>
+        <v>226770</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236740</v>
+        <v>236708</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9861932585053543</v>
+        <v>0.9861932585053542</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9543423939862357</v>
+        <v>0.955917205673868</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9979422477420925</v>
+        <v>0.9978080016234016</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1126</v>
@@ -1918,19 +1918,19 @@
         <v>824194</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>816191</v>
+        <v>814857</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>829911</v>
+        <v>830141</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9785559562817888</v>
+        <v>0.9785559562817887</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9690542201879311</v>
+        <v>0.9674709749268928</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9853436376529271</v>
+        <v>0.9856173821129934</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1235</v>
@@ -1939,19 +1939,19 @@
         <v>1058145</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1048350</v>
+        <v>1048324</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1065151</v>
+        <v>1064809</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.980234334578118</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9711604464315189</v>
+        <v>0.9711364809071027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9867239952390655</v>
+        <v>0.9864070175746686</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>562133</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>521987</v>
+        <v>518956</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>603496</v>
+        <v>607763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1635960811992266</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1519126172636015</v>
+        <v>0.1510303956106606</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1756340759328441</v>
+        <v>0.1768757461844642</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>178</v>
@@ -2064,19 +2064,19 @@
         <v>114899</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>97973</v>
+        <v>99025</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>132758</v>
+        <v>133711</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03167870583419714</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02701198865347386</v>
+        <v>0.02730205457137912</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03660248679126905</v>
+        <v>0.03686528006028268</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>821</v>
@@ -2085,19 +2085,19 @@
         <v>677032</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>633011</v>
+        <v>628582</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>730589</v>
+        <v>721505</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09585449950281316</v>
+        <v>0.09585449950281318</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0896219320322867</v>
+        <v>0.08899494096531155</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.103437092283108</v>
+        <v>0.1021509527532591</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>2873968</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2832605</v>
+        <v>2828338</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2914114</v>
+        <v>2917145</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8364039188007735</v>
+        <v>0.8364039188007734</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8243659240671559</v>
+        <v>0.823124253815536</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8480873827363984</v>
+        <v>0.8489696043893395</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5055</v>
@@ -2135,19 +2135,19 @@
         <v>3512122</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3494263</v>
+        <v>3493310</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3529048</v>
+        <v>3527996</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9683212941658029</v>
+        <v>0.9683212941658028</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9633975132087312</v>
+        <v>0.9631347199397174</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9729880113465263</v>
+        <v>0.9726979454286211</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7706</v>
@@ -2156,19 +2156,19 @@
         <v>6386090</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6332533</v>
+        <v>6341617</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6430111</v>
+        <v>6434540</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9041455004971868</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.896562907716892</v>
+        <v>0.897849047246741</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9103780679677134</v>
+        <v>0.9110050590346883</v>
       </c>
     </row>
     <row r="24">
